--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2257.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2257.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.176949058672047</v>
+        <v>0.9394679069519043</v>
       </c>
       <c r="B1">
-        <v>2.287471932843687</v>
+        <v>2.822190046310425</v>
       </c>
       <c r="C1">
-        <v>6.745217095946606</v>
+        <v>5.406792163848877</v>
       </c>
       <c r="D1">
-        <v>2.523199705684452</v>
+        <v>2.092458009719849</v>
       </c>
       <c r="E1">
-        <v>1.20092455492415</v>
+        <v>1.181698322296143</v>
       </c>
     </row>
   </sheetData>
